--- a/biology/Zoologie/Atiaia_consobrina/Atiaia_consobrina.xlsx
+++ b/biology/Zoologie/Atiaia_consobrina/Atiaia_consobrina.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Atiaia consobrina est une espèce d'insectes coléoptères de la famille des Cerambycidae, sous-famille des Cerambycinae et de la tribu des Cerambycini.
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Répartition [1]</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Brésil, Guyane, Guyana,  Surinam, Venezuela.</t>
         </is>
@@ -568,11 +584,48 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Atiaia consobrina a été décrite par l'entomologiste britannique Charles Joseph Gahan en 1892.
-Synonymie
-Hammaticherus consobrinus Gahan, 1892 Protonyme
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Atiaia consobrina a été décrite par l'entomologiste britannique Charles Joseph Gahan en 1892.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Atiaia_consobrina</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Atiaia_consobrina</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Hammaticherus consobrinus Gahan, 1892 Protonyme
 Hammatichaerus consobrinus (Gounelle, 1906)
 Hamaticherus consobrinus (Aurivillius, 1912)
 Brasilianus consobrinus (Blackwelder, 1946)</t>
